--- a/项目文档/理发_接口说明.xlsx
+++ b/项目文档/理发_接口说明.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="表" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="77">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -53,7 +53,280 @@
     <t xml:space="preserve">x：x坐标
 y: y坐标
 distance:距离
+orderby:{1:距离,2:评价得分;3:服务，4.费用:高-&gt;低，5：费用:低-&gt;高6:}
 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>店铺详细</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>店铺Id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>店铺评论列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>店铺id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表名/字段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pwd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前拥有的金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>money</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>address</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>latitude</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>long</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>横坐标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纵坐标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>priceWoman</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>女士价格（普通烫染）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ratingbarScore</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优惠折扣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-10折</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>priceMan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>男士价格（平剪）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ImageUrl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>店铺图片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>long</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>comment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评论表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>店铺表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isShoper</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shopId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>店铺id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>createTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>creatTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评论id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>other</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0：普通用户，1：店主，2管理员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phoneImei</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>order</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>money</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发生时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>店铺id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -61,7 +334,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -76,13 +349,46 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5" tint="0.39997558519241921"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -97,10 +403,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -405,18 +722,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="12.5" customWidth="1"/>
     <col min="3" max="3" width="14.375" customWidth="1"/>
     <col min="4" max="4" width="21.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -439,7 +756,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="84" customHeight="1">
       <c r="A2">
         <v>1</v>
       </c>
@@ -450,67 +767,79 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7">
       <c r="A11">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7">
       <c r="A12">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7">
       <c r="A13">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7">
       <c r="A14">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7">
       <c r="A15">
         <v>14</v>
       </c>
@@ -524,14 +853,350 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:P33"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="5" max="5" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.375" customWidth="1"/>
+    <col min="7" max="7" width="15.375" customWidth="1"/>
+    <col min="8" max="8" width="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H3" t="s">
+        <v>63</v>
+      </c>
+      <c r="I3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" s="5">
+        <v>2</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+    </row>
+    <row r="12" spans="1:16" ht="27">
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12" t="s">
+        <v>38</v>
+      </c>
+      <c r="H12" t="s">
+        <v>33</v>
+      </c>
+      <c r="I12" s="8"/>
+      <c r="J12" t="s">
+        <v>36</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="M12" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+    </row>
+    <row r="13" spans="1:16" ht="36.75" customHeight="1">
+      <c r="D13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" t="s">
+        <v>30</v>
+      </c>
+      <c r="F13" t="s">
+        <v>31</v>
+      </c>
+      <c r="G13" t="s">
+        <v>39</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="B14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14" t="s">
+        <v>44</v>
+      </c>
+      <c r="G14" t="s">
+        <v>21</v>
+      </c>
+      <c r="H14" t="s">
+        <v>21</v>
+      </c>
+      <c r="J14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="5">
+        <v>3</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="B21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21" t="s">
+        <v>52</v>
+      </c>
+      <c r="E21" t="s">
+        <v>53</v>
+      </c>
+      <c r="F21" t="s">
+        <v>35</v>
+      </c>
+      <c r="G21" t="s">
+        <v>61</v>
+      </c>
+      <c r="H21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="B22" t="s">
+        <v>62</v>
+      </c>
+      <c r="C22" t="s">
+        <v>57</v>
+      </c>
+      <c r="D22" t="s">
+        <v>56</v>
+      </c>
+      <c r="E22" t="s">
+        <v>55</v>
+      </c>
+      <c r="F22" t="s">
+        <v>54</v>
+      </c>
+      <c r="G22" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="5">
+        <v>4</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="B31" t="s">
+        <v>16</v>
+      </c>
+      <c r="C31" t="s">
+        <v>68</v>
+      </c>
+      <c r="D31" t="s">
+        <v>52</v>
+      </c>
+      <c r="E31" t="s">
+        <v>69</v>
+      </c>
+      <c r="F31" t="s">
+        <v>59</v>
+      </c>
+      <c r="G31" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="B32" t="s">
+        <v>74</v>
+      </c>
+      <c r="C32" t="s">
+        <v>73</v>
+      </c>
+      <c r="D32" t="s">
+        <v>72</v>
+      </c>
+      <c r="E32" t="s">
+        <v>71</v>
+      </c>
+      <c r="F32" t="s">
+        <v>70</v>
+      </c>
+      <c r="G32" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5">
+      <c r="B33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -541,7 +1206,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/项目文档/理发_接口说明.xlsx
+++ b/项目文档/理发_接口说明.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="接口" sheetId="1" r:id="rId1"/>
     <sheet name="表" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="78">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -47,286 +47,290 @@
   </si>
   <si>
     <t>店铺列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>店铺详细</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>店铺Id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>店铺评论列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>店铺id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表名/字段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pwd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前拥有的金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>money</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>address</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>latitude</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>long</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>横坐标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纵坐标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>priceWoman</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>女士价格（普通烫染）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ratingbarScore</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优惠折扣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-10折</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>priceMan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>男士价格（平剪）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ImageUrl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>店铺图片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>long</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>comment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评论表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>店铺表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isShoper</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shopId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>店铺id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>createTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>creatTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评论id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>other</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0：普通用户，1：店主，2管理员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phoneImei</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>order</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>money</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发生时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>店铺id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">x：x坐标
 y: y坐标
 distance:距离
-orderby:{1:距离,2:评价得分;3:服务，4.费用:高-&gt;低，5：费用:低-&gt;高6:}
+orderby:{1:距离,2:评价得分;3.费用:高-&gt;低，4：费用:低-&gt;高5:}
 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>店铺详细</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>店铺Id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>店铺评论列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>店铺id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>序号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>表名/字段</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>user</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pwd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当前拥有的金额</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>money</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>shop</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>address</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>latitude</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>long</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>横坐标</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>纵坐标</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>priceWoman</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>女士价格（普通烫染）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ratingbarScore</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>优惠折扣</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1-10折</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>priceMan</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>男士价格（平剪）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ImageUrl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>店铺图片</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>text</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>long</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>float</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>comment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>评论表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>店铺表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isShoper</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>userId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>shopId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>content</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>评分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>店铺id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>createTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>creatTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>评论id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>other</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0：普通用户，1：店主，2管理员</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phoneImei</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>order</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>购买单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>userId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>money</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发生时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>金额</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>店铺id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>status</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>状态</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -722,8 +726,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -764,7 +768,7 @@
         <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>8</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -772,10 +776,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
         <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -783,10 +787,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
         <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -855,8 +859,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -869,10 +873,10 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
         <v>13</v>
-      </c>
-      <c r="B1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:16">
@@ -880,10 +884,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -896,56 +900,56 @@
     </row>
     <row r="3" spans="1:16">
       <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
         <v>16</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>17</v>
       </c>
-      <c r="D3" t="s">
-        <v>18</v>
-      </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="E4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="B5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -953,10 +957,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
@@ -969,38 +973,38 @@
     </row>
     <row r="12" spans="1:16" ht="27">
       <c r="B12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
         <v>26</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>27</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>28</v>
       </c>
-      <c r="F12" t="s">
-        <v>29</v>
-      </c>
       <c r="G12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I12" s="8"/>
       <c r="J12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M12" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N12" s="7"/>
       <c r="O12" s="7"/>
@@ -1008,31 +1012,31 @@
     </row>
     <row r="13" spans="1:16" ht="36.75" customHeight="1">
       <c r="D13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E13" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" t="s">
         <v>30</v>
       </c>
-      <c r="F13" t="s">
-        <v>31</v>
-      </c>
       <c r="G13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M13" s="7"/>
       <c r="N13" s="7"/>
@@ -1040,28 +1044,28 @@
     </row>
     <row r="14" spans="1:16">
       <c r="B14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" t="s">
         <v>42</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" t="s">
         <v>43</v>
       </c>
-      <c r="E14" t="s">
-        <v>29</v>
-      </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H14" t="s">
+        <v>20</v>
+      </c>
+      <c r="J14" t="s">
         <v>44</v>
-      </c>
-      <c r="G14" t="s">
-        <v>21</v>
-      </c>
-      <c r="H14" t="s">
-        <v>21</v>
-      </c>
-      <c r="J14" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1069,10 +1073,10 @@
         <v>3</v>
       </c>
       <c r="B20" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" s="5" t="s">
         <v>46</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>47</v>
       </c>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
@@ -1085,45 +1089,45 @@
     </row>
     <row r="21" spans="1:11">
       <c r="B21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C21" t="s">
+        <v>50</v>
+      </c>
+      <c r="D21" t="s">
         <v>51</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>52</v>
       </c>
-      <c r="E21" t="s">
-        <v>53</v>
-      </c>
       <c r="F21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:11">
       <c r="B22" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1131,10 +1135,10 @@
         <v>4</v>
       </c>
       <c r="B30" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C30" s="5" t="s">
         <v>66</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>67</v>
       </c>
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
@@ -1147,19 +1151,19 @@
     </row>
     <row r="31" spans="1:11">
       <c r="B31" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C31" t="s">
+        <v>67</v>
+      </c>
+      <c r="D31" t="s">
+        <v>51</v>
+      </c>
+      <c r="E31" t="s">
         <v>68</v>
       </c>
-      <c r="D31" t="s">
-        <v>52</v>
-      </c>
-      <c r="E31" t="s">
-        <v>69</v>
-      </c>
       <c r="F31" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G31" t="s">
         <v>75</v>
@@ -1167,30 +1171,33 @@
     </row>
     <row r="32" spans="1:11">
       <c r="B32" t="s">
+        <v>73</v>
+      </c>
+      <c r="C32" t="s">
+        <v>72</v>
+      </c>
+      <c r="D32" t="s">
+        <v>71</v>
+      </c>
+      <c r="E32" t="s">
+        <v>70</v>
+      </c>
+      <c r="F32" t="s">
+        <v>69</v>
+      </c>
+      <c r="G32" t="s">
         <v>74</v>
       </c>
-      <c r="C32" t="s">
-        <v>73</v>
-      </c>
-      <c r="D32" t="s">
-        <v>72</v>
-      </c>
-      <c r="E32" t="s">
-        <v>71</v>
-      </c>
-      <c r="F32" t="s">
-        <v>70</v>
-      </c>
-      <c r="G32" t="s">
+    </row>
+    <row r="33" spans="2:7">
+      <c r="B33" t="s">
+        <v>20</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="G33" t="s">
         <v>76</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5">
-      <c r="B33" t="s">
-        <v>21</v>
-      </c>
-      <c r="E33" t="s">
-        <v>45</v>
       </c>
     </row>
   </sheetData>
